--- a/Uloha7/Uloha7 _offline.xlsx
+++ b/Uloha7/Uloha7 _offline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="301" documentId="11_F25DC773A252ABDACC10484611DA68E65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B605550A-64F3-41D6-9A83-C55AD063ACFE}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="11_F25DC773A252ABDACC10484611DA68E65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA497622-6065-44B5-AD9C-DD42C0D6C722}"/>
   <bookViews>
-    <workbookView xWindow="-84" yWindow="12" windowWidth="15480" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="30912" windowHeight="16656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7A" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>T</t>
   </si>
@@ -824,11 +824,27 @@
       <t>-1</t>
     </r>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dB</t>
+  </si>
+  <si>
+    <t>NEXT</t>
+  </si>
+  <si>
+    <t>ACR-N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1457,7 +1473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1507,19 +1523,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1607,6 +1614,15 @@
     <xf numFmtId="48" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1658,13 +1674,55 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1682,6 +1740,3714 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7B'!$O$7:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7B'!$P$7:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-4.3321235130152354E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.3321235130152354E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.3321235130152354E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.3321235130152354E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.12932084498463331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.25674449410344397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.1761097335181354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.3785150565155329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.5978996002327621</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.0436503622272495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1581079461903911</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44552789422304417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A7D-4ACC-A48D-8D6C956D56F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7B'!$O$7:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7B'!$S$7:$S$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.21990768602926478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21990768602926478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21990768602926478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26456531467510386</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30945373312414975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35457533920863232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44552789422304417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44552789422304417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53744292800602655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77157811867103354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49136382981474236</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0611345860434915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A7D-4ACC-A48D-8D6C956D56F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7B'!$O$7:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7B'!$V$7:$V$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.21990768602926478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21990768602926478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26456531467510386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30945373312414975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30945373312414975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44552789422304417</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63034102892129718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63034102892129718</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67716534521934657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1598389395537345</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17547848615010303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3267712969276482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A7D-4ACC-A48D-8D6C956D56F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="881831407"/>
+        <c:axId val="881830447"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="881831407"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="881830447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="881830447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="881831407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7B'!$O$7:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7B'!$Q$7:$Q$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>56.683247506197425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.359659148502622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.51448260798422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.213965949873788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.331524890261001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.452821312273386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.944525494160484</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.636282765076764</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.172766123314547</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>6.6509409422009202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.013189010928361</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.894549897933878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D13-4D9D-B408-D07FA6FDC07D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7B'!$O$7:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7B'!$T$7:$T$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>59.015639546596361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.137508032910766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.629721202442248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.935749724493121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.94452549416048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.855800607042632</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.370421659154896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.848596478041269</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.938200260161128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.670921029001491</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.000">
+                  <c:v>9.4991038592630943</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.151546383555875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D13-4D9D-B408-D07FA6FDC07D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7B'!$O$7:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7B'!$W$7:$W$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>55.624040037765248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.165392132742873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.306171383648014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.363128241104548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.683247506197425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.555682434543456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.371830714967508</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.537442928006023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.956678764869842</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.36121409579151</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.371830714967508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D13-4D9D-B408-D07FA6FDC07D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1160474239"/>
+        <c:axId val="1170213375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1160474239"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1170213375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1170213375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160474239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7B'!$O$7:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7B'!$R$7:$R$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>56.726568741327576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.402980383632773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.557803843114371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.257287185003939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.460845735245634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.70956580637683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.120635227678619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.014797821592296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.77066572354731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.694591304428169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.85508106473797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.449022003710834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F165-4A45-8BFB-37A60CD3CC05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7B'!$O$7:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7B'!$U$7:$U$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>58.795731860567095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.9176003468815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.409813516412981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.671184409818018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.635071761036329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.501225267834002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.924893764931852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.403068583818225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.400757332155102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.899342910330461</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.000">
+                  <c:v>9.0077400294483514</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.090411797512381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F165-4A45-8BFB-37A60CD3CC05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7B'!$O$7:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7B'!$X$7:$X$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>55.404132351735981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.945484446713607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.041606068972911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.053674507980396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.373793773073274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.110154540320416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.741489686046208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.369658971078692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.860277582786679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.796839825316106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.185735609641405</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.045059418039862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F165-4A45-8BFB-37A60CD3CC05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1082975311"/>
+        <c:axId val="1082977711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1082975311"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1082977711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1082977711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1082975311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0849AE09-85A7-62BF-325E-79EB1BEA31E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A356C87-AA34-54BA-89AF-77AE85707440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11AB21C8-174B-517B-73AA-DCCD822FE724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1949,7 +5715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
@@ -1976,7 +5742,7 @@
       <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="22" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1985,47 +5751,47 @@
       <c r="H3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="38" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="U3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="36" t="s">
+      <c r="V3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="W3" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2040,7 +5806,7 @@
       <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2049,7 +5815,7 @@
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="20" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -2058,38 +5824,38 @@
       <c r="L4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="32" t="s">
+      <c r="M4" s="24"/>
+      <c r="N4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="36">
         <v>38.9</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="37">
         <v>73.7</v>
       </c>
-      <c r="Q4" s="40">
+      <c r="Q4" s="37">
         <v>12.7</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="37">
         <v>0.3</v>
       </c>
-      <c r="S4" s="41">
+      <c r="S4" s="38">
         <v>44</v>
       </c>
-      <c r="T4" s="42" cm="1">
+      <c r="T4" s="39" cm="1">
         <f t="array" ref="T4:T5">PI()*(O4:O5*0.001+P4:P5*0.001)/2</f>
         <v>0.17687166639710536</v>
       </c>
-      <c r="U4" s="43" cm="1">
+      <c r="U4" s="40" cm="1">
         <f t="array" ref="U4:U5">Q4:Q5*0.001*(P4:P5*0.001-O4:O5*0.001)/2</f>
         <v>2.2098000000000002E-4</v>
       </c>
-      <c r="V4" s="43" cm="1">
+      <c r="V4" s="40" cm="1">
         <f t="array" ref="V4:V5">R4:R5*U4:U5*S4:S5</f>
         <v>2.9169360000000002E-3</v>
       </c>
-      <c r="W4" s="44" cm="1">
+      <c r="W4" s="41" cm="1">
         <f t="array" ref="W4:W5">V4:V5/10</f>
         <v>2.9169360000000003E-4</v>
       </c>
@@ -2105,7 +5871,7 @@
       <c r="F5" s="3">
         <v>0.96660000000000001</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="21">
         <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -2114,45 +5880,45 @@
       <c r="I5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="70">
+      <c r="L5" s="50">
         <f>(1/E10)*(E12/E11)</f>
         <v>20631.960473411375</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="24"/>
+      <c r="N5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="42">
         <v>70</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="43">
         <v>110</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="43">
         <v>20</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5" s="43">
         <v>1.5</v>
       </c>
-      <c r="S5" s="47">
+      <c r="S5" s="44">
         <v>50</v>
       </c>
-      <c r="T5" s="48">
+      <c r="T5" s="45">
         <v>0.28274333882308139</v>
       </c>
-      <c r="U5" s="49">
+      <c r="U5" s="46">
         <v>3.9999999999999996E-4</v>
       </c>
-      <c r="V5" s="49">
+      <c r="V5" s="46">
         <v>0.03</v>
       </c>
-      <c r="W5" s="50">
+      <c r="W5" s="47">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -2175,8 +5941,8 @@
       </c>
       <c r="K6" s="55"/>
       <c r="L6" s="55"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="3:23" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="57"/>
@@ -2195,12 +5961,12 @@
       </c>
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="3:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="48" t="s">
         <v>38</v>
       </c>
       <c r="E10">
@@ -2209,7 +5975,7 @@
       </c>
     </row>
     <row r="11" spans="3:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="49" t="s">
         <v>39</v>
       </c>
       <c r="E11">
@@ -2217,7 +5983,7 @@
       </c>
     </row>
     <row r="12" spans="3:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="49" t="s">
         <v>40</v>
       </c>
       <c r="E12">
@@ -2242,16 +6008,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CF6D5F-E6AB-4492-BBC1-2870C6114F12}">
-  <dimension ref="C2:L19"/>
+  <dimension ref="C2:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="17" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C3" s="66"/>
       <c r="D3" s="60" t="s">
         <v>4</v>
@@ -2268,8 +6038,24 @@
       </c>
       <c r="K3" s="61"/>
       <c r="L3" s="62"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="61"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" s="61"/>
+      <c r="X3" s="62"/>
     </row>
-    <row r="4" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="67"/>
       <c r="D4" s="63" t="s">
         <v>5</v>
@@ -2286,8 +6072,24 @@
       </c>
       <c r="K4" s="64"/>
       <c r="L4" s="65"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="64"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="64"/>
+      <c r="X4" s="65"/>
     </row>
-    <row r="5" spans="3:12" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:24" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
@@ -2318,8 +6120,38 @@
       <c r="L5" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="O5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
@@ -2350,15 +6182,45 @@
       <c r="L6" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="O6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" spans="3:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="12">
         <v>0.01</v>
       </c>
       <c r="D7" s="13">
         <v>2</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="68">
         <v>2.0099999999999998</v>
       </c>
       <c r="F7" s="14">
@@ -2367,30 +6229,69 @@
       <c r="G7" s="13">
         <v>2</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="68">
         <v>1.95</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="72">
         <v>2.2400000000000002</v>
       </c>
       <c r="J7" s="16">
         <v>2</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="74">
         <v>1.95</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="75">
         <v>3.31</v>
       </c>
+      <c r="O7" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="P7" s="78" cm="1">
+        <f t="array" ref="P7:P18">20*LOG(ABS(D7:D18)/ABS(E7:E18),10)</f>
+        <v>-4.3321235130152354E-2</v>
+      </c>
+      <c r="Q7" s="68" cm="1">
+        <f t="array" ref="Q7:Q18">20*LOG(ABS(D7:D18)/ABS(F7:F18*0.001),10)</f>
+        <v>56.683247506197425</v>
+      </c>
+      <c r="R7" s="69" cm="1">
+        <f t="array" ref="R7:R18">Q7:Q18-P7:P18</f>
+        <v>56.726568741327576</v>
+      </c>
+      <c r="S7" s="78" cm="1">
+        <f t="array" ref="S7:S18">20*LOG(ABS(G7:G18)/ABS(H7:H18),10)</f>
+        <v>0.21990768602926478</v>
+      </c>
+      <c r="T7" s="68" cm="1">
+        <f t="array" ref="T7:T18">20*LOG(ABS(G7:G18)/ABS(I7:I18*0.001),10)</f>
+        <v>59.015639546596361</v>
+      </c>
+      <c r="U7" s="72" cm="1">
+        <f t="array" ref="U7:U18">T7:T18-S7:S18</f>
+        <v>58.795731860567095</v>
+      </c>
+      <c r="V7" s="81" cm="1">
+        <f t="array" ref="V7:V18">20*LOG(ABS(J7:J18)/ABS(K7:K18),10)</f>
+        <v>0.21990768602926478</v>
+      </c>
+      <c r="W7" s="74" cm="1">
+        <f t="array" ref="W7:W18">20*LOG(ABS(J7:J18)/ABS(L7:L18*0.001),10)</f>
+        <v>55.624040037765248</v>
+      </c>
+      <c r="X7" s="75" cm="1">
+        <f t="array" ref="X7:X18">W7:W18-V7:V18</f>
+        <v>55.404132351735981</v>
+      </c>
     </row>
-    <row r="8" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="12">
         <v>0.02</v>
       </c>
       <c r="D8" s="13">
         <v>2</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="68">
         <v>2.0099999999999998</v>
       </c>
       <c r="F8" s="14">
@@ -2399,30 +6300,60 @@
       <c r="G8" s="13">
         <v>2</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="68">
         <v>1.95</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="72">
         <v>3.12</v>
       </c>
       <c r="J8" s="16">
         <v>2</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="74">
         <v>1.95</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="75">
         <v>3.11</v>
       </c>
+      <c r="O8" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="P8" s="78">
+        <v>-4.3321235130152354E-2</v>
+      </c>
+      <c r="Q8" s="68">
+        <v>52.359659148502622</v>
+      </c>
+      <c r="R8" s="69">
+        <v>52.402980383632773</v>
+      </c>
+      <c r="S8" s="78">
+        <v>0.21990768602926478</v>
+      </c>
+      <c r="T8" s="68">
+        <v>56.137508032910766</v>
+      </c>
+      <c r="U8" s="72">
+        <v>55.9176003468815</v>
+      </c>
+      <c r="V8" s="81">
+        <v>0.21990768602926478</v>
+      </c>
+      <c r="W8" s="74">
+        <v>56.165392132742873</v>
+      </c>
+      <c r="X8" s="75">
+        <v>55.945484446713607</v>
+      </c>
     </row>
-    <row r="9" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="12">
         <v>0.05</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="68">
         <v>2.0099999999999998</v>
       </c>
       <c r="F9" s="14">
@@ -2431,30 +6362,60 @@
       <c r="G9" s="13">
         <v>2</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="68">
         <v>1.95</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="72">
         <v>6.6</v>
       </c>
       <c r="J9" s="16">
         <v>2</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="74">
         <v>1.94</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="75">
         <v>3.06</v>
       </c>
+      <c r="O9" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="P9" s="78">
+        <v>-4.3321235130152354E-2</v>
+      </c>
+      <c r="Q9" s="68">
+        <v>45.51448260798422</v>
+      </c>
+      <c r="R9" s="69">
+        <v>45.557803843114371</v>
+      </c>
+      <c r="S9" s="78">
+        <v>0.21990768602926478</v>
+      </c>
+      <c r="T9" s="68">
+        <v>49.629721202442248</v>
+      </c>
+      <c r="U9" s="72">
+        <v>49.409813516412981</v>
+      </c>
+      <c r="V9" s="81">
+        <v>0.26456531467510386</v>
+      </c>
+      <c r="W9" s="74">
+        <v>56.306171383648014</v>
+      </c>
+      <c r="X9" s="75">
+        <v>56.041606068972911</v>
+      </c>
     </row>
-    <row r="10" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D10" s="13">
         <v>2</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="68">
         <v>2.0099999999999998</v>
       </c>
       <c r="F10" s="14">
@@ -2463,30 +6424,60 @@
       <c r="G10" s="13">
         <v>2</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="68">
         <v>1.94</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="72">
         <v>9</v>
       </c>
       <c r="J10" s="16">
         <v>2</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="74">
         <v>1.93</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="75">
         <v>3.04</v>
       </c>
+      <c r="O10" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P10" s="78">
+        <v>-4.3321235130152354E-2</v>
+      </c>
+      <c r="Q10" s="68">
+        <v>42.213965949873788</v>
+      </c>
+      <c r="R10" s="69">
+        <v>42.257287185003939</v>
+      </c>
+      <c r="S10" s="78">
+        <v>0.26456531467510386</v>
+      </c>
+      <c r="T10" s="68">
+        <v>46.935749724493121</v>
+      </c>
+      <c r="U10" s="72">
+        <v>46.671184409818018</v>
+      </c>
+      <c r="V10" s="81">
+        <v>0.30945373312414975</v>
+      </c>
+      <c r="W10" s="74">
+        <v>56.363128241104548</v>
+      </c>
+      <c r="X10" s="75">
+        <v>56.053674507980396</v>
+      </c>
     </row>
-    <row r="11" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="12">
         <v>0.1</v>
       </c>
       <c r="D11" s="13">
         <v>2</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="68">
         <v>2.0299999999999998</v>
       </c>
       <c r="F11" s="14">
@@ -2495,7 +6486,7 @@
       <c r="G11" s="13">
         <v>2</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="68">
         <v>1.93</v>
       </c>
       <c r="I11" s="15">
@@ -2504,21 +6495,51 @@
       <c r="J11" s="16">
         <v>2</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="74">
         <v>1.93</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="75">
         <v>2.93</v>
       </c>
+      <c r="O11" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="78">
+        <v>-0.12932084498463331</v>
+      </c>
+      <c r="Q11" s="68">
+        <v>39.331524890261001</v>
+      </c>
+      <c r="R11" s="69">
+        <v>39.460845735245634</v>
+      </c>
+      <c r="S11" s="78">
+        <v>0.30945373312414975</v>
+      </c>
+      <c r="T11" s="68">
+        <v>43.94452549416048</v>
+      </c>
+      <c r="U11" s="72">
+        <v>43.635071761036329</v>
+      </c>
+      <c r="V11" s="81">
+        <v>0.30945373312414975</v>
+      </c>
+      <c r="W11" s="74">
+        <v>56.683247506197425</v>
+      </c>
+      <c r="X11" s="75">
+        <v>56.373793773073274</v>
+      </c>
     </row>
-    <row r="12" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="12">
         <v>0.2</v>
       </c>
       <c r="D12" s="13">
         <v>2</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="68">
         <v>2.06</v>
       </c>
       <c r="F12" s="14">
@@ -2527,7 +6548,7 @@
       <c r="G12" s="13">
         <v>2</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="68">
         <v>1.92</v>
       </c>
       <c r="I12" s="15">
@@ -2536,21 +6557,51 @@
       <c r="J12" s="16">
         <v>2</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="74">
         <v>1.9</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="75">
         <v>2.65</v>
       </c>
+      <c r="O12" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="P12" s="78">
+        <v>-0.25674449410344397</v>
+      </c>
+      <c r="Q12" s="68">
+        <v>33.452821312273386</v>
+      </c>
+      <c r="R12" s="69">
+        <v>33.70956580637683</v>
+      </c>
+      <c r="S12" s="78">
+        <v>0.35457533920863232</v>
+      </c>
+      <c r="T12" s="68">
+        <v>37.855800607042632</v>
+      </c>
+      <c r="U12" s="72">
+        <v>37.501225267834002</v>
+      </c>
+      <c r="V12" s="81">
+        <v>0.44552789422304417</v>
+      </c>
+      <c r="W12" s="74">
+        <v>57.555682434543456</v>
+      </c>
+      <c r="X12" s="75">
+        <v>57.110154540320416</v>
+      </c>
     </row>
-    <row r="13" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="12">
         <v>0.5</v>
       </c>
       <c r="D13" s="13">
         <v>2</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="68">
         <v>2.29</v>
       </c>
       <c r="F13" s="14">
@@ -2559,30 +6610,60 @@
       <c r="G13" s="13">
         <v>2</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="68">
         <v>1.9</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="83">
         <v>68</v>
       </c>
       <c r="J13" s="16">
         <v>2</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="74">
         <v>1.86</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="75">
         <v>2.15</v>
       </c>
+      <c r="O13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="78">
+        <v>-1.1761097335181354</v>
+      </c>
+      <c r="Q13" s="68">
+        <v>23.944525494160484</v>
+      </c>
+      <c r="R13" s="69">
+        <v>25.120635227678619</v>
+      </c>
+      <c r="S13" s="78">
+        <v>0.44552789422304417</v>
+      </c>
+      <c r="T13" s="68">
+        <v>29.370421659154896</v>
+      </c>
+      <c r="U13" s="72">
+        <v>28.924893764931852</v>
+      </c>
+      <c r="V13" s="81">
+        <v>0.63034102892129718</v>
+      </c>
+      <c r="W13" s="74">
+        <v>59.371830714967508</v>
+      </c>
+      <c r="X13" s="75">
+        <v>58.741489686046208</v>
+      </c>
     </row>
-    <row r="14" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="12">
         <v>0.7</v>
       </c>
       <c r="D14" s="13">
         <v>2</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="68">
         <v>2.63</v>
       </c>
       <c r="F14" s="14">
@@ -2591,7 +6672,7 @@
       <c r="G14" s="13">
         <v>2</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="68">
         <v>1.9</v>
       </c>
       <c r="I14" s="15">
@@ -2600,21 +6681,51 @@
       <c r="J14" s="16">
         <v>2</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="74">
         <v>1.86</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="75">
         <v>2</v>
       </c>
+      <c r="O14" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="P14" s="78">
+        <v>-2.3785150565155329</v>
+      </c>
+      <c r="Q14" s="68">
+        <v>18.636282765076764</v>
+      </c>
+      <c r="R14" s="69">
+        <v>21.014797821592296</v>
+      </c>
+      <c r="S14" s="78">
+        <v>0.44552789422304417</v>
+      </c>
+      <c r="T14" s="68">
+        <v>25.848596478041269</v>
+      </c>
+      <c r="U14" s="72">
+        <v>25.403068583818225</v>
+      </c>
+      <c r="V14" s="81">
+        <v>0.63034102892129718</v>
+      </c>
+      <c r="W14" s="74">
+        <v>59.999999999999993</v>
+      </c>
+      <c r="X14" s="75">
+        <v>59.369658971078692</v>
+      </c>
     </row>
-    <row r="15" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="12">
         <v>1</v>
       </c>
       <c r="D15" s="13">
         <v>2</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="68">
         <v>3.81</v>
       </c>
       <c r="F15" s="14">
@@ -2623,7 +6734,7 @@
       <c r="G15" s="13">
         <v>2</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="68">
         <v>1.88</v>
       </c>
       <c r="I15" s="15">
@@ -2632,21 +6743,51 @@
       <c r="J15" s="16">
         <v>2</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="74">
         <v>1.85</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="75">
         <v>1.88</v>
       </c>
+      <c r="O15" s="12">
+        <v>1</v>
+      </c>
+      <c r="P15" s="78">
+        <v>-5.5978996002327621</v>
+      </c>
+      <c r="Q15" s="68">
+        <v>10.172766123314547</v>
+      </c>
+      <c r="R15" s="69">
+        <v>15.77066572354731</v>
+      </c>
+      <c r="S15" s="78">
+        <v>0.53744292800602655</v>
+      </c>
+      <c r="T15" s="68">
+        <v>21.938200260161128</v>
+      </c>
+      <c r="U15" s="72">
+        <v>21.400757332155102</v>
+      </c>
+      <c r="V15" s="81">
+        <v>0.67716534521934657</v>
+      </c>
+      <c r="W15" s="74">
+        <v>60.537442928006023</v>
+      </c>
+      <c r="X15" s="75">
+        <v>59.860277582786679</v>
+      </c>
     </row>
-    <row r="16" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="12">
         <v>5</v>
       </c>
       <c r="D16" s="13">
         <v>2</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="68">
         <v>4.5</v>
       </c>
       <c r="F16" s="14">
@@ -2655,7 +6796,7 @@
       <c r="G16" s="13">
         <v>2</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="68">
         <v>1.83</v>
       </c>
       <c r="I16" s="15">
@@ -2664,21 +6805,51 @@
       <c r="J16" s="16">
         <v>2</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="74">
         <v>1.75</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="75">
         <v>2.0099999999999998</v>
       </c>
+      <c r="O16" s="12">
+        <v>5</v>
+      </c>
+      <c r="P16" s="78">
+        <v>-7.0436503622272495</v>
+      </c>
+      <c r="Q16" s="78">
+        <v>6.6509409422009202</v>
+      </c>
+      <c r="R16" s="69">
+        <v>13.694591304428169</v>
+      </c>
+      <c r="S16" s="78">
+        <v>0.77157811867103354</v>
+      </c>
+      <c r="T16" s="68">
+        <v>41.670921029001491</v>
+      </c>
+      <c r="U16" s="72">
+        <v>40.899342910330461</v>
+      </c>
+      <c r="V16" s="81">
+        <v>1.1598389395537345</v>
+      </c>
+      <c r="W16" s="74">
+        <v>59.956678764869842</v>
+      </c>
+      <c r="X16" s="75">
+        <v>58.796839825316106</v>
+      </c>
     </row>
-    <row r="17" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="12">
         <v>7</v>
       </c>
       <c r="D17" s="13">
         <v>2</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="68">
         <v>1.56</v>
       </c>
       <c r="F17" s="14">
@@ -2687,7 +6858,7 @@
       <c r="G17" s="13">
         <v>2</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="68">
         <v>1.89</v>
       </c>
       <c r="I17" s="15">
@@ -2696,21 +6867,51 @@
       <c r="J17" s="16">
         <v>2</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="74">
         <v>1.96</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="75">
         <v>2.71</v>
       </c>
+      <c r="O17" s="12">
+        <v>7</v>
+      </c>
+      <c r="P17" s="78">
+        <v>2.1581079461903911</v>
+      </c>
+      <c r="Q17" s="68">
+        <v>24.013189010928361</v>
+      </c>
+      <c r="R17" s="69">
+        <v>21.85508106473797</v>
+      </c>
+      <c r="S17" s="78">
+        <v>0.49136382981474236</v>
+      </c>
+      <c r="T17" s="78">
+        <v>9.4991038592630943</v>
+      </c>
+      <c r="U17" s="79">
+        <v>9.0077400294483514</v>
+      </c>
+      <c r="V17" s="81">
+        <v>0.17547848615010303</v>
+      </c>
+      <c r="W17" s="74">
+        <v>57.36121409579151</v>
+      </c>
+      <c r="X17" s="75">
+        <v>57.185735609641405</v>
+      </c>
     </row>
-    <row r="18" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="18">
+    <row r="18" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="17">
         <v>10</v>
       </c>
       <c r="D18" s="10">
         <v>2</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="70">
         <v>1.9</v>
       </c>
       <c r="F18" s="11">
@@ -2719,25 +6920,62 @@
       <c r="G18" s="10">
         <v>2</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="70">
         <v>1.77</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="84">
         <v>44</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="18">
         <v>2</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="76">
         <v>1.53</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="77">
         <v>2.15</v>
       </c>
+      <c r="O18" s="17">
+        <v>10</v>
+      </c>
+      <c r="P18" s="80">
+        <v>0.44552789422304417</v>
+      </c>
+      <c r="Q18" s="70">
+        <v>14.894549897933878</v>
+      </c>
+      <c r="R18" s="71">
+        <v>14.449022003710834</v>
+      </c>
+      <c r="S18" s="80">
+        <v>1.0611345860434915</v>
+      </c>
+      <c r="T18" s="70">
+        <v>33.151546383555875</v>
+      </c>
+      <c r="U18" s="73">
+        <v>32.090411797512381</v>
+      </c>
+      <c r="V18" s="82">
+        <v>2.3267712969276482</v>
+      </c>
+      <c r="W18" s="76">
+        <v>59.371830714967508</v>
+      </c>
+      <c r="X18" s="77">
+        <v>57.045059418039862</v>
+      </c>
     </row>
-    <row r="19" spans="3:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:24" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:X4"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="C3:C4"/>
@@ -2747,5 +6985,6 @@
     <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>